--- a/data/trans_dic/P43_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de capacidad laboral autopercibida &lt;=7</t>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,42 +662,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,72</t>
+          <t>0,0; 24,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,48</t>
+          <t>0,0; 23,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 50,16</t>
+          <t>2,37; 23,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 34,14</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,86</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 26,85</t>
+          <t>0,0; 7,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 26,42</t>
+          <t>1,98; 17,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 19,1</t>
+          <t>0,0; 7,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 11,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 10,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 14,98</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 22,21</t>
+          <t>1,65; 19,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 16,57</t>
+          <t>0,0; 15,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 23,44</t>
+          <t>1,28; 16,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 24,52</t>
+          <t>3,21; 50,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 28,01</t>
+          <t>1,92; 16,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 26,19</t>
+          <t>4,92; 22,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,94</t>
+          <t>3,4; 20,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,34</t>
+          <t>4,34; 25,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 19,83</t>
+          <t>2,85; 13,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 13,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 14,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 36,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 15,63</t>
+          <t>3,01; 16,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 19,76</t>
+          <t>3,17; 18,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 15,29</t>
+          <t>1,53; 14,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 19,77</t>
+          <t>5,49; 23,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 17,69</t>
+          <t>2,91; 13,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 19,29</t>
+          <t>3,61; 13,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,09</t>
+          <t>3,53; 13,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 16,17</t>
+          <t>2,33; 14,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 14,42</t>
+          <t>4,21; 12,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 13,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 11,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 15,77</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 20,51</t>
+          <t>1,36; 12,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 17,02</t>
+          <t>2,4; 13,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,81</t>
+          <t>2,28; 13,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 29,26</t>
+          <t>11,07; 28,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 37,13</t>
+          <t>7,62; 21,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 38,79</t>
+          <t>11,06; 26,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 22,05</t>
+          <t>11,94; 27,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,61</t>
+          <t>11,75; 28,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 22,66</t>
+          <t>6,47; 15,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,29; 17,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 18,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 25,2</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 29,36</t>
+          <t>3,9; 17,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,34; 28,17</t>
+          <t>4,66; 20,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 28,26</t>
+          <t>3,98; 17,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 50,25</t>
+          <t>5,15; 21,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 44,84</t>
+          <t>0,0; 12,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 40,97</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,25; 31,39</t>
+          <t>0,0; 14,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,27; 29,23</t>
+          <t>3,76; 21,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,58; 27,75</t>
+          <t>3,28; 12,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 14,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 13,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 17,69</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,32 +1372,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,4%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1425,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 13,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1255,27 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,99; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 100,0</t>
+          <t>0,0; 15,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 14,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 84,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,07; 85,84</t>
+          <t>0,0; 6,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,8</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 14,74</t>
+          <t>3,62; 8,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,79</t>
+          <t>3,82; 9,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,32</t>
+          <t>3,69; 8,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,83; 21,97</t>
+          <t>8,33; 20,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,78</t>
+          <t>4,43; 9,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 23,11</t>
+          <t>6,81; 12,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,51</t>
+          <t>5,83; 11,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,68; 17,26</t>
+          <t>6,8; 12,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,96</t>
+          <t>4,5; 7,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 9,83</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 9,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 14,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,57%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6572</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7860</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12180</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11485</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9844</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22224</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25492</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30231</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3459; 34805</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17953</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16407</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8770</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2877; 25762</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18402</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3007; 26790</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1983; 27210</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8439; 43640</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9808</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3856</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8915</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40716</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12157</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13574</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11466</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18861</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21965</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17430</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20381</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59577</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2624; 31264</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21580</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1972; 25105</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7300; 115006</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3120; 26318</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6239; 27940</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4292; 25828</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7043; 41309</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9162; 43286</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7070; 36322</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8538; 39738</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21602; 143064</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12689</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11102</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8108</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22280</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17899</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15407</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14392</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16367</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30588</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26509</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22500</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38647</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4880; 26352</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4265; 24360</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2100; 20046</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9904; 42386</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7382; 33059</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7566; 28554</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7075; 26809</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5484; 33728</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17508; 53224</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14736; 45390</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12295; 39181</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22448; 65574</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9080</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9945</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9309</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37533</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28780</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33445</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32501</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39775</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37859</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41810</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>77307</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2360; 20936</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3863; 21763</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3555; 20402</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22050; 56056</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15472; 44534</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20367; 48262</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20388; 47224</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24768; 59993</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24341; 58095</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28632; 61565</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28066; 59391</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56862; 103339</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14639</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15163</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12017</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17216</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13911</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19038</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18938</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15895</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31126</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6033; 27516</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6150; 26694</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4906; 21981</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7787; 32929</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14460</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13043</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13798</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5069; 28326</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8884; 34228</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9184; 32857</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7226; 28830</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17383; 50589</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14573</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16201</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15843</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14888</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18091</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19669</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>49176</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>46639</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>46210</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>129924</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>66878</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>76228</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>67179</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>98958</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>116054</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>122867</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>113388</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>228882</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>31330; 72431</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>29164; 70054</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>29125; 69752</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>86842; 215783</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>44619; 96312</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>57159; 105693</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>47988; 93499</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>72796; 135115</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>84155; 148780</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>91668; 157602</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>85182; 145874</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>177961; 315235</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>